--- a/数据整理/stocks/A股/深证主板/000625-长安汽车.xlsx
+++ b/数据整理/stocks/A股/深证主板/000625-长安汽车.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3902,7 +3903,6 @@
           <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>94.48</t>
@@ -3934,7 +3934,6 @@
           <t>南方君信灵活配置混合C</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>56.82</t>
@@ -3966,7 +3965,6 @@
           <t>创金合信汇融一年定期开放混合C</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>65.08</t>
@@ -3998,7 +3996,6 @@
           <t>创金合信汇悦一年定期开放混合C</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>33.50</t>
@@ -4014,6 +4011,1694 @@
       </c>
       <c r="H28" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8277</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4498</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6293</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4191</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>65.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3419</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3056</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1051</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>59.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7422</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方成份精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5781</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2471</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160225</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0516</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9458</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9196</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9140</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9049</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7877</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7066</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4607</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4362</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009768</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信汇悦一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2818</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1970</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1725</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>40.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>30.89</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>48.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>48.62</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>48.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004573</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新华鑫泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002449</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>民生加银量化中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009769</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>创金合信汇悦一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000625-长安汽车.xlsx
+++ b/数据整理/stocks/A股/深证主板/000625-长安汽车.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5704,4 +5705,858 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6657</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7048</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安宏利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6730</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9696</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9021</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7090</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6240</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2526</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1965</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009260</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>516870</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华中证800汽车与零部件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009261</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002449</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>民生加银量化中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000625-长安汽车.xlsx
+++ b/数据整理/stocks/A股/深证主板/000625-长安汽车.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6559,4 +6560,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>65</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000625-长安汽车.xlsx
+++ b/数据整理/stocks/A股/深证主板/000625-长安汽车.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6568,7 +6569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6579,17 +6580,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6599,14 +6620,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.84</v>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4961</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -6615,14 +6658,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>43</v>
-      </c>
-      <c r="D3" t="n">
-        <v>32.66</v>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9898</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -6631,14 +6696,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.56</v>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8046</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -6647,13 +6734,417 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5276</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3522</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008555</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006712</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006713</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>65</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>38.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000625-长安汽车.xlsx
+++ b/数据整理/stocks/A股/深证主板/000625-长安汽车.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7043,7 +7044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7054,17 +7055,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7074,14 +7095,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.58</v>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>187.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.1720</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -7090,14 +7133,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.84</v>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7160</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -7106,14 +7171,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>43</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32.66</v>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5952</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -7122,14 +7209,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>27</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.56</v>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7540</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -7138,13 +7247,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6773</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>65</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>38.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000625-长安汽车.xlsx
+++ b/数据整理/stocks/A股/深证主板/000625-长安汽车.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7404,7 +7405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7415,17 +7416,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7435,14 +7456,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.18</v>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>205.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.3396</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -7451,14 +7494,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.58</v>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0741</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -7467,14 +7532,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.84</v>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7840</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -7483,14 +7570,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="n">
-        <v>32.66</v>
+          <t>009318</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>77.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.7655</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -7499,14 +7608,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>27</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.56</v>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.7251</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -7515,13 +7646,6255 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.9532</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5258</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.5084</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>41.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7288</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4095</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1208</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0258</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9942</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9276</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9270</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8668</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7408</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7219</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6752</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>34.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6659</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6653</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009319</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6434</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5513</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华乐享混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5292</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5123</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4878</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3770</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3737</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3668</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3391</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2975</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2940</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2900</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2773</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2637</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2398</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2279</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013143</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国安诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2267</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2189</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2106</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2075</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013274</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长城优化升级混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1964</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1928</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013188</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004982</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>新华安享多裕定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>34.25</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013842</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013144</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国安诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005137</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>450008</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国富沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009467</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>红土创新科技创新3个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010843</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国天润回报混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014478</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中加低碳经济六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007448</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005248</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004737</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013843</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006712</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>003957</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>安信量化精选沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011667</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008318</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>博道久航混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>000841</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>富国新回报灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>000199</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>国泰量化策略收益混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>516130</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006034</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>富国MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004707</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>景顺长城睿成灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005225</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>广发量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>008184</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>013173</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>红土创新科技创新3个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>000992</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>广发对冲套利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>660006</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>农银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>73.59</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006713</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>003958</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>安信量化精选沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>011668</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005095</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>78.56</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>008319</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>博道久航混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>161816</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>银华中证等权重90指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>71.88</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>004719</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>景顺长城睿成灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>014479</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>中加低碳经济六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>014549</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>005280</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>安信稳健阿尔法定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>35.48</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>009624</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>安信稳健阿尔法定开混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>35.48</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>000688</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>景顺长城研究精选股票</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>010844</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>富国天润回报混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>015159</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>004606</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>上投摩根优选多因子股票</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>002804</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化对冲稳健收益定期开放混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>000843</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>富国新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>30.47</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>005096</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>78.56</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>004747</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>011982</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>博时内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>005405</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>30.47</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>015165</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>005406</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>015057</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>166</v>
+      </c>
+      <c r="D2" t="n">
+        <v>57.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>43</v>
+      </c>
+      <c r="D6" t="n">
+        <v>32.66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>65</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>38.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000625-长安汽车.xlsx
+++ b/数据整理/stocks/A股/深证主板/000625-长安汽车.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="D2" t="n">
-        <v>57.72</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="D3" t="n">
-        <v>13.18</v>
+        <v>57.72</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>6.58</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>12.84</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>32.66</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D7" t="n">
-        <v>10.56</v>
+        <v>32.66</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>27</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>65</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>38.19</v>
       </c>
     </row>
@@ -600,6 +617,3548 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>167.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.8486</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5418</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0679</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6819</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2617</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9706</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7532</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7446</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012688</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长安成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6387</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6104</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5090</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5022</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4827</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006252</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4270</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3904</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006253</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2329</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2304</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013188</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1774</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>75.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011899</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝消费龙头（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012689</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长安成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>67.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001193</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中金消费升级股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013842</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华宝消费龙头（LOF）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010764</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>九泰锐升混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>54.42</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009640</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013843</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>516130</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013204</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006712</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011667</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009641</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006836</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>永赢惠泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>46.83</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006713</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011590</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>九泰天利量化股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011668</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009107</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>67.89</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014861</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>申万菱信双禧混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>36.24</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009054</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>圆信永丰沣泰混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>26.81</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>44.26</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011589</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>九泰天利量化股票A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>36.24</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011982</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博时内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009106</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>014862</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>申万菱信双禧混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>29.03</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005627</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>013205</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>29.03</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6955,7 +10514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7315,7 +10874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7789,7 +11348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8643,7 +12202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10331,7 +13890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11385,7 +14944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000625-长安汽车.xlsx
+++ b/数据整理/stocks/A股/深证主板/000625-长安汽车.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="D2" t="n">
-        <v>26.48</v>
+        <v>21.16</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="D3" t="n">
-        <v>57.72</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="D4" t="n">
-        <v>13.18</v>
+        <v>57.72</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>6.58</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>12.84</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>32.66</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D8" t="n">
-        <v>10.56</v>
+        <v>32.66</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2548 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>27</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>65</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>38.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9014</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160142</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方3年封闭运作战略配售灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>207.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7294</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2922</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2091</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1860</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>62.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1389</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0334</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0334</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8392</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4017</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3407</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>38.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3238</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009454</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信汇融一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1155</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160225</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0049</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9564</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8473</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009296</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7441</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>61.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7436</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009351</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方誉丰18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>29.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5574</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4379</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4375</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4333</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4244</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3825</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009768</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信汇悦一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3718</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2930</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009297</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>27.04</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2828</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>481013</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2250</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2150</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>72.39</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>41.27</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000794</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000796</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003739</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>新华鑫弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>32.20</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>28.30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>28.30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009352</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方誉丰18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001183</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方利淘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004982</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>新华安享多裕定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004573</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>新华鑫泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011475</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001504</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方利淘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>72.39</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009455</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>创金合信汇融一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009769</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>创金合信汇悦一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3152,2224 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>153.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.6551</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>13.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0087</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>13.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4825</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159623</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时成渝经济圈ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4235</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1072</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7313</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5311</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5281</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012688</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长安成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5183</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4571</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4499</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010892</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3488</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3327</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3323</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2988</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013188</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1825</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013323</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012689</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长安成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009640</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.12</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004657</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009641</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013204</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004658</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010893</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013324</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>38.44</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011982</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>38.44</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013205</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4158,7 +8911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10514,7 +15267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10874,7 +15627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11348,7 +16101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12202,7 +16955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13890,7 +18643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14942,2522 +19695,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H66"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004854</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中证全指汽车指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>33.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>11.66</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.9014</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160142</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方3年封闭运作战略配售灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>207.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>28.25</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.7294</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009190</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城核心优选一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>62.80</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.2922</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>515900</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>49.31</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99.05</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.2091</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>260110</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城精选蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>43.72</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.1860</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001975</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景顺长城环保优势股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>62.91</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.12</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2.1389</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>260116</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>景顺长城核心竞争力混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>32.43</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.01</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2.0334</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>960008</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>景顺长城核心竞争力混合H</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>32.43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.01</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2.0334</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>260101</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>景顺长城优选混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>63.86</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>77.26</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.8392</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>515680</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>嘉实中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>31.64</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>98.98</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.4017</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006435</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>景顺长城创新成长混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>43.11</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.3407</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009376</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>景顺长城成长领航混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>38.37</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.19</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.3238</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009454</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>创金合信汇融一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>11.88</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>99.35</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>9.39</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1.1155</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>160225</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国泰国证新能源汽车指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>29.73</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.88</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1.0049</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>515600</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>广发中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>22.61</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>99.13</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.9564</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002083</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>新华鑫动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>16.17</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.8473</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009296</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>南方誉慧一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>23.18</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>27.04</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.7441</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009970</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>财通内需增长12个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>14.03</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>61.31</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.7436</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009351</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>南方誉丰18个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>29.65</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>20.94</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.5574</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>000849</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>汇丰晋信双核策略混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>84.52</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.4379</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>320006</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>诺安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>11.19</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>79.23</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.4375</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002084</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>新华鑫动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.4333</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004855</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>广发中证全指汽车指数C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>11.66</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.4244</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>290002</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>泰信先行策略混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>11.12</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>87.06</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.3825</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009768</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>创金合信汇悦一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>98.82</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>10.27</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.3718</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>007113</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>永赢高端制造混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.2930</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009297</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>南方誉慧一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>8.81</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>27.04</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.2828</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>481013</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>工银消费服务混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>86.69</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.2250</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>159974</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>富国中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>99.22</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.2150</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002270</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>东吴安盈量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>86.45</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1922</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>540009</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>汇丰晋信消费红利股票</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>85.96</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1738</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>481008</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>工银大盘蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>86.54</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.1652</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>005741</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>南方君信灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>72.39</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.1487</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>000264</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>博时内需增长混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>76.36</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.1428</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>001318</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>东方新策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>23.95</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.1292</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>420005</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>天弘周期策略混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>86.63</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.1249</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>519095</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>新华行业周期轮换混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.1150</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>400020</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>东方成长回报平衡混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>41.27</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.1093</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>002272</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>新华科技创新主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.1044</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>000794</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>90.76</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0959</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>000796</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>宝盈睿丰创新灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>90.76</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0959</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>008180</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>同泰慧利混合A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0823</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>002060</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>东方新策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>23.95</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0761</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>003739</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>新华鑫弘灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>32.20</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0655</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>519625</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>银河君盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>28.30</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0537</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>519626</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>银河君盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>28.30</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0508</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>000042</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0465</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>519097</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>新华中小市值优选混合</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0424</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>009352</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>南方誉丰18个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>20.94</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0385</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>000850</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>汇丰晋信双核策略混合C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>84.52</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0379</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>000327</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>南方潜力新蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>91.09</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0372</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>001183</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>南方利淘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>24.12</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0325</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>001267</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>泰达宏利蓝筹价值混合</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0322</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>004982</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>新华安享多裕定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>29.93</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0312</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>008093</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>同泰慧选混合A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0211</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>007114</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>永赢高端制造混合C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0191</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>004573</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>新华鑫泰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>008094</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>同泰慧选混合C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>008181</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>同泰慧利混合C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>011475</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>工银消费服务混合C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>86.69</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>001504</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>南方利淘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>24.12</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>010150</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>南方君信灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>72.39</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>009455</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>创金合信汇融一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>99.35</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>9.39</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>009769</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>创金合信汇悦一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>98.82</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>10.27</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>003184</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>